--- a/Interviews_Columns/Interview 3.xlsx
+++ b/Interviews_Columns/Interview 3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pzban\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmad\LMS\_Project\GIT\PROJECT-E4\Interviews_Columns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{1F059183-7A11-43A2-97DD-89C12BACD9F5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{169503CD-FEDD-4DA2-B86F-BF717E278397}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>table: student</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>working time</t>
   </si>
   <si>
@@ -42,9 +38,6 @@
     <t>sum of login time</t>
   </si>
   <si>
-    <t>data type</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -145,12 +138,18 @@
   </si>
   <si>
     <t>from student select difficulty</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -169,12 +168,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,12 +206,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -505,11 +525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6980E1-7D80-4B9C-943F-DB614A72E287}">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -517,216 +537,213 @@
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="16" spans="1:6">
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Interviews_Columns/Interview 3.xlsx
+++ b/Interviews_Columns/Interview 3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmad\LMS\_Project\GIT\PROJECT-E4\Interviews_Columns\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pzban\Documents\GitHub\PROJECT-E4\Interviews_Columns\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{E800629A-5CFC-42EF-87C0-F930BE42FF48}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>table: student</t>
   </si>
@@ -44,9 +45,6 @@
     <t>submit time</t>
   </si>
   <si>
-    <t>student notes</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -59,9 +57,6 @@
     <t>answer</t>
   </si>
   <si>
-    <t>success</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
@@ -144,12 +139,21 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>student exercise feedback</t>
+  </si>
+  <si>
+    <t>question_status</t>
+  </si>
+  <si>
+    <t>list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -214,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,11 +529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -546,24 +550,24 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
@@ -580,10 +584,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -597,104 +601,104 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -702,48 +706,48 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Interviews_Columns/Interview 3.xlsx
+++ b/Interviews_Columns/Interview 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pzban\Documents\GitHub\PROJECT-E4\Interviews_Columns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{E800629A-5CFC-42EF-87C0-F930BE42FF48}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{69BC1383-2851-4050-8404-D9F295002C14}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>table: student</t>
   </si>
@@ -63,22 +63,10 @@
     <t>difficulty index</t>
   </si>
   <si>
-    <t>student type</t>
-  </si>
-  <si>
-    <t>char</t>
-  </si>
-  <si>
-    <t>students' type A, B, C......</t>
-  </si>
-  <si>
     <t>difficulty</t>
   </si>
   <si>
     <t>student who are in difficulty</t>
-  </si>
-  <si>
-    <t>spend time per week</t>
   </si>
   <si>
     <t>pass rate</t>
@@ -530,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -543,6 +531,7 @@
     <col min="3" max="3" width="32.5546875" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -550,24 +539,24 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
@@ -584,10 +573,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -601,21 +590,21 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,13 +615,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -643,24 +632,24 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -679,75 +668,56 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="C15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="1" t="s">
-        <v>30</v>
+      <c r="C16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Interviews_Columns/Interview 3.xlsx
+++ b/Interviews_Columns/Interview 3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pzban\Documents\GitHub\PROJECT-E4\Interviews_Columns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{69BC1383-2851-4050-8404-D9F295002C14}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{01229337-C928-4126-A799-EAF323F2BE08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,9 +78,6 @@
     <t>tried times</t>
   </si>
   <si>
-    <t>table: nation</t>
-  </si>
-  <si>
     <t>notion name</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>list</t>
+  </si>
+  <si>
+    <t>table: notion</t>
   </si>
 </sst>
 </file>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -539,24 +539,24 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>4</v>
@@ -573,10 +573,10 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -590,21 +590,21 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -615,13 +615,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -632,24 +632,24 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -692,32 +692,32 @@
     </row>
     <row r="14" spans="1:6">
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
